--- a/meta/program/BlancoVueComponentMeta2Xml.xlsx
+++ b/meta/program/BlancoVueComponentMeta2Xml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB90328-579D-6C41-9B81-30958681E035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DA706-3CDA-1840-AC89-0A3763CE469E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="460" windowWidth="19360" windowHeight="14540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>blanco/vuecomponent/BlancoVueComponetMeta2Xml.xml</t>
+    <t>blanco/vuecomponent/BlancoVueComponentMeta2Xml.xml</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
